--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业负债.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业负债.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1579 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.41788</v>
+        <v>506.5</v>
       </c>
       <c r="C2" t="n">
-        <v>102.5327</v>
+        <v>81.2</v>
       </c>
       <c r="D2" t="n">
-        <v>214.55965</v>
+        <v>190.3</v>
       </c>
       <c r="E2" t="n">
-        <v>2509.02671</v>
+        <v>5157.9</v>
       </c>
       <c r="F2" t="n">
-        <v>7.59244</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>9.84559</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>74.2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>400.15583</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1426.2</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1.21081</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1580.09971</v>
+        <v>3972.4</v>
       </c>
       <c r="M2" t="n">
-        <v>10.59476</v>
+        <v>5.6</v>
       </c>
       <c r="N2" t="n">
-        <v>600.4612100000001</v>
+        <v>849.7</v>
       </c>
       <c r="O2" t="n">
-        <v>20.79389</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>15.51572</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>389.21746</v>
+        <v>450.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5115</v>
+        <v>13.9</v>
       </c>
       <c r="S2" t="n">
-        <v>70.61360999999999</v>
+        <v>165.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2413.76324</v>
+        <v>4577.2</v>
       </c>
       <c r="U2" t="n">
-        <v>420.94972</v>
+        <v>1500.1</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>108.94384</v>
+        <v>98</v>
       </c>
       <c r="X2" t="n">
-        <v>386.45095</v>
+        <v>388</v>
       </c>
       <c r="Y2" t="n">
-        <v>539.7095399999999</v>
+        <v>734.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.69366</v>
+        <v>12.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.62109</v>
+        <v>236.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.58216</v>
+        <v>1265.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.04365</v>
+        <v>39.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>221.94401</v>
+        <v>995.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>40.42938</v>
+        <v>158.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>22.16512</v>
+        <v>72.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>29.09822</v>
+        <v>17.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>30.16135</v>
+        <v>31.9</v>
       </c>
       <c r="AI2" t="n">
-        <v>97.91915</v>
+        <v>169.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>104.33546</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.77693</v>
+        <v>2.5</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.2</v>
+        <v>556.3</v>
       </c>
       <c r="C3" t="n">
-        <v>108.4</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>212</v>
+        <v>201.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4368.1</v>
+        <v>5766.7</v>
       </c>
       <c r="F3" t="n">
-        <v>22.5</v>
+        <v>115.6</v>
       </c>
       <c r="G3" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>87.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
       <c r="I3" t="n">
-        <v>1017.7</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>1729</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3165</v>
+        <v>4506.5</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N3" t="n">
-        <v>856.5</v>
+        <v>861.9</v>
       </c>
       <c r="O3" t="n">
-        <v>43.5</v>
+        <v>85.5</v>
       </c>
       <c r="P3" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>488</v>
+        <v>482.3</v>
       </c>
       <c r="R3" t="n">
-        <v>12.3</v>
+        <v>60.2</v>
       </c>
       <c r="S3" t="n">
-        <v>155.3</v>
+        <v>135.1</v>
       </c>
       <c r="T3" t="n">
-        <v>3948.1</v>
+        <v>5122.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1061.1</v>
+        <v>1814.5</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>104.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>408.4</v>
+        <v>415.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>715.1</v>
+        <v>777.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.3</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.9</v>
+        <v>240.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>926.5</v>
+        <v>1349.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>28.8</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="n">
-        <v>738.6</v>
+        <v>1069.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>107.8</v>
+        <v>142.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>51.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.8</v>
+        <v>14.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>33.7</v>
+        <v>37.7</v>
       </c>
       <c r="AI3" t="n">
-        <v>150.3</v>
+        <v>214.9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412.5</v>
+        <v>641.44918</v>
       </c>
       <c r="C4" t="n">
-        <v>99.8</v>
+        <v>88.86376</v>
       </c>
       <c r="D4" t="n">
-        <v>183.1</v>
+        <v>214.70539</v>
       </c>
       <c r="E4" t="n">
-        <v>4596.9</v>
+        <v>6504.59592</v>
       </c>
       <c r="F4" t="n">
-        <v>34.6</v>
+        <v>177.41916</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>87.95426999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.90159</v>
+      </c>
       <c r="I4" t="n">
-        <v>1097.7</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>2158.36966</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.69622</v>
+      </c>
       <c r="K4" t="n">
-        <v>1.4</v>
+        <v>1.92044</v>
       </c>
       <c r="L4" t="n">
-        <v>3366.6</v>
+        <v>5219.25385</v>
       </c>
       <c r="M4" t="n">
-        <v>5.9</v>
+        <v>4.3962</v>
       </c>
       <c r="N4" t="n">
-        <v>826.3</v>
+        <v>907.41934</v>
       </c>
       <c r="O4" t="n">
-        <v>62</v>
+        <v>84.24359</v>
       </c>
       <c r="P4" t="n">
-        <v>8.5</v>
+        <v>5.75516</v>
       </c>
       <c r="Q4" t="n">
-        <v>454.3</v>
+        <v>507.27255</v>
       </c>
       <c r="R4" t="n">
-        <v>9.699999999999999</v>
+        <v>33.62447</v>
       </c>
       <c r="S4" t="n">
-        <v>161.7</v>
+        <v>164.17734</v>
       </c>
       <c r="T4" t="n">
-        <v>4124.5</v>
+        <v>5775.19247</v>
       </c>
       <c r="U4" t="n">
-        <v>1159.7</v>
+        <v>2242.61325</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>122.3</v>
+        <v>108.39469</v>
       </c>
       <c r="X4" t="n">
-        <v>424.6</v>
+        <v>401.79994</v>
       </c>
       <c r="Y4" t="n">
-        <v>776</v>
+        <v>778.06952</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.8</v>
+        <v>26.97168</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.3</v>
+        <v>239.20699</v>
       </c>
       <c r="AB4" t="n">
-        <v>1041.2</v>
+        <v>1537.84407</v>
       </c>
       <c r="AC4" t="n">
-        <v>30.8</v>
+        <v>40.59</v>
       </c>
       <c r="AD4" t="n">
-        <v>817</v>
+        <v>1226.97268</v>
       </c>
       <c r="AE4" t="n">
-        <v>129</v>
+        <v>163.66752</v>
       </c>
       <c r="AF4" t="n">
-        <v>64.40000000000001</v>
+        <v>106.61387</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.6</v>
+        <v>13.44945</v>
       </c>
       <c r="AH4" t="n">
-        <v>32.3</v>
+        <v>31.18562</v>
       </c>
       <c r="AI4" t="n">
-        <v>157.1</v>
+        <v>201.41539</v>
       </c>
       <c r="AJ4" t="n">
-        <v>97.8</v>
+        <v>107.90757</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.8</v>
+        <v>1.37765</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.5</v>
+        <v>811.83613</v>
       </c>
       <c r="C5" t="n">
-        <v>81.2</v>
+        <v>83.34475999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>190.3</v>
+        <v>228.72632</v>
       </c>
       <c r="E5" t="n">
-        <v>5157.9</v>
+        <v>7356.71832</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>28.36568</v>
       </c>
       <c r="G5" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>151.6841</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.47357</v>
+      </c>
       <c r="I5" t="n">
-        <v>1426.2</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>2801.39287</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.30612</v>
+      </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>0.53721</v>
       </c>
       <c r="L5" t="n">
-        <v>3972.4</v>
+        <v>5961.03743</v>
       </c>
       <c r="M5" t="n">
-        <v>5.6</v>
+        <v>2.78733</v>
       </c>
       <c r="N5" t="n">
-        <v>849.7</v>
+        <v>674.8105399999999</v>
       </c>
       <c r="O5" t="n">
-        <v>73.90000000000001</v>
+        <v>199.91294</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>3.7353</v>
       </c>
       <c r="Q5" t="n">
-        <v>450.7</v>
+        <v>498.48601</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>35.37897</v>
       </c>
       <c r="S5" t="n">
-        <v>165.3</v>
+        <v>149.56239</v>
       </c>
       <c r="T5" t="n">
-        <v>4577.2</v>
+        <v>6393.19809</v>
       </c>
       <c r="U5" t="n">
-        <v>1500.1</v>
+        <v>3001.30581</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>98</v>
+        <v>108.67662</v>
       </c>
       <c r="X5" t="n">
-        <v>388</v>
+        <v>441.03251</v>
       </c>
       <c r="Y5" t="n">
-        <v>734.8</v>
+        <v>897.19488</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.6</v>
+        <v>25.22302</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.2</v>
+        <v>316.95661</v>
       </c>
       <c r="AB5" t="n">
-        <v>1265.6</v>
+        <v>1859.53754</v>
       </c>
       <c r="AC5" t="n">
-        <v>39.6</v>
+        <v>15.99504</v>
       </c>
       <c r="AD5" t="n">
-        <v>995.2</v>
+        <v>1638.46596</v>
       </c>
       <c r="AE5" t="n">
-        <v>158.1</v>
+        <v>85.89196</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.7</v>
+        <v>119.18458</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.7</v>
+        <v>7.93689</v>
       </c>
       <c r="AH5" t="n">
-        <v>31.9</v>
+        <v>20.52182</v>
       </c>
       <c r="AI5" t="n">
-        <v>169.5</v>
+        <v>279.14543</v>
       </c>
       <c r="AJ5" t="n">
-        <v>97.90000000000001</v>
+        <v>89.41372</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.5</v>
+        <v>0.87705</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.3</v>
+        <v>887.9699000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>77.20227</v>
       </c>
       <c r="D6" t="n">
-        <v>201.8</v>
+        <v>219.09128</v>
       </c>
       <c r="E6" t="n">
-        <v>5766.7</v>
+        <v>8070.8</v>
       </c>
       <c r="F6" t="n">
-        <v>115.6</v>
+        <v>28.15444</v>
       </c>
       <c r="G6" t="n">
-        <v>87.7</v>
+        <v>158.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>1.15407</v>
       </c>
       <c r="I6" t="n">
-        <v>1729</v>
+        <v>3203.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>1.55828</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>0.49678</v>
       </c>
       <c r="L6" t="n">
-        <v>4506.5</v>
+        <v>6538.2</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>3.34041</v>
       </c>
       <c r="N6" t="n">
-        <v>861.9</v>
+        <v>683.50243</v>
       </c>
       <c r="O6" t="n">
-        <v>85.5</v>
+        <v>229.52299</v>
       </c>
       <c r="P6" t="n">
-        <v>6.8</v>
+        <v>3.4839</v>
       </c>
       <c r="Q6" t="n">
-        <v>482.3</v>
+        <v>525.81474</v>
       </c>
       <c r="R6" t="n">
-        <v>60.2</v>
+        <v>41.26372</v>
       </c>
       <c r="S6" t="n">
-        <v>135.1</v>
+        <v>187.1034</v>
       </c>
       <c r="T6" t="n">
-        <v>5122.7</v>
+        <v>7024.1724</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.5</v>
+        <v>3432.6</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>98.59999999999999</v>
+        <v>114.32321</v>
       </c>
       <c r="X6" t="n">
-        <v>415.3</v>
+        <v>463.1339</v>
       </c>
       <c r="Y6" t="n">
-        <v>777.9</v>
+        <v>1006.84452</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>28.58226</v>
       </c>
       <c r="AA6" t="n">
-        <v>240.9</v>
+        <v>399.24687</v>
       </c>
       <c r="AB6" t="n">
-        <v>1349.5</v>
+        <v>1999.89029</v>
       </c>
       <c r="AC6" t="n">
-        <v>38</v>
+        <v>15.35408</v>
       </c>
       <c r="AD6" t="n">
-        <v>1069.8</v>
+        <v>1785.51192</v>
       </c>
       <c r="AE6" t="n">
-        <v>142.6</v>
+        <v>72.64243999999999</v>
       </c>
       <c r="AF6" t="n">
-        <v>99.09999999999999</v>
+        <v>126.38185</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.8</v>
+        <v>7.79939</v>
       </c>
       <c r="AH6" t="n">
-        <v>37.7</v>
+        <v>19.18793</v>
       </c>
       <c r="AI6" t="n">
-        <v>214.9</v>
+        <v>280.36635</v>
       </c>
       <c r="AJ6" t="n">
-        <v>97.59999999999999</v>
+        <v>86.61906999999999</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.1</v>
+        <v>0.4783</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.44918</v>
+        <v>931.6706</v>
       </c>
       <c r="C7" t="n">
-        <v>88.86376</v>
+        <v>71.485</v>
       </c>
       <c r="D7" t="n">
-        <v>214.70539</v>
+        <v>215.9445</v>
       </c>
       <c r="E7" t="n">
-        <v>6504.59592</v>
+        <v>8451.890299999999</v>
       </c>
       <c r="F7" t="n">
-        <v>177.41916</v>
+        <v>26.2808</v>
       </c>
       <c r="G7" t="n">
-        <v>87.95426999999999</v>
+        <v>196.8988</v>
       </c>
       <c r="H7" t="n">
-        <v>5.90159</v>
+        <v>-0.7369</v>
       </c>
       <c r="I7" t="n">
-        <v>2158.36966</v>
+        <v>3522.7138</v>
       </c>
       <c r="J7" t="n">
-        <v>1.69622</v>
+        <v>4.6133</v>
       </c>
       <c r="K7" t="n">
-        <v>1.92044</v>
+        <v>0.5635</v>
       </c>
       <c r="L7" t="n">
-        <v>5219.25385</v>
+        <v>6924.1384</v>
       </c>
       <c r="M7" t="n">
-        <v>4.3962</v>
+        <v>-0.6435999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>907.41934</v>
+        <v>662.818</v>
       </c>
       <c r="O7" t="n">
-        <v>84.24359</v>
+        <v>243.5147</v>
       </c>
       <c r="P7" t="n">
-        <v>5.75516</v>
+        <v>3.7378</v>
       </c>
       <c r="Q7" t="n">
-        <v>507.27255</v>
+        <v>496.5721</v>
       </c>
       <c r="R7" t="n">
-        <v>33.62447</v>
+        <v>42.1786</v>
       </c>
       <c r="S7" t="n">
-        <v>164.17734</v>
+        <v>167.701</v>
       </c>
       <c r="T7" t="n">
-        <v>5775.19247</v>
+        <v>7323.3214</v>
       </c>
       <c r="U7" t="n">
-        <v>2242.61325</v>
+        <v>3766.2287</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>108.39469</v>
+        <v>108.5801</v>
       </c>
       <c r="X7" t="n">
-        <v>401.79994</v>
+        <v>455.2824</v>
       </c>
       <c r="Y7" t="n">
-        <v>778.06952</v>
+        <v>1031.1799</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.97168</v>
+        <v>17.3407</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.20699</v>
+        <v>445.3642</v>
       </c>
       <c r="AB7" t="n">
-        <v>1537.84407</v>
+        <v>2089.9825</v>
       </c>
       <c r="AC7" t="n">
-        <v>40.59</v>
+        <v>14.9092</v>
       </c>
       <c r="AD7" t="n">
-        <v>1226.97268</v>
+        <v>1893.5912</v>
       </c>
       <c r="AE7" t="n">
-        <v>163.66752</v>
+        <v>70.9639</v>
       </c>
       <c r="AF7" t="n">
-        <v>106.61387</v>
+        <v>110.5187</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.44945</v>
+        <v>4.2574</v>
       </c>
       <c r="AH7" t="n">
-        <v>31.18562</v>
+        <v>14.787</v>
       </c>
       <c r="AI7" t="n">
-        <v>201.41539</v>
+        <v>282.4846</v>
       </c>
       <c r="AJ7" t="n">
-        <v>107.90757</v>
+        <v>77.3</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.37765</v>
+        <v>0.5997</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>811.83613</v>
+        <v>1030.0404</v>
       </c>
       <c r="C8" t="n">
-        <v>83.34475999999999</v>
+        <v>99.8442</v>
       </c>
       <c r="D8" t="n">
-        <v>228.72632</v>
+        <v>186.3489</v>
       </c>
       <c r="E8" t="n">
-        <v>7356.71832</v>
+        <v>8794.193499999999</v>
       </c>
       <c r="F8" t="n">
-        <v>28.36568</v>
+        <v>21.2178</v>
       </c>
       <c r="G8" t="n">
-        <v>151.6841</v>
+        <v>204.8189</v>
       </c>
       <c r="H8" t="n">
-        <v>1.47357</v>
+        <v>-2.6872</v>
       </c>
       <c r="I8" t="n">
-        <v>2801.39287</v>
+        <v>3736.1229</v>
       </c>
       <c r="J8" t="n">
-        <v>5.30612</v>
+        <v>5.5525</v>
       </c>
       <c r="K8" t="n">
-        <v>0.53721</v>
+        <v>0.0544</v>
       </c>
       <c r="L8" t="n">
-        <v>5961.03743</v>
+        <v>7157.3411</v>
       </c>
       <c r="M8" t="n">
-        <v>2.78733</v>
+        <v>11.5538</v>
       </c>
       <c r="N8" t="n">
-        <v>674.8105399999999</v>
+        <v>609.9395</v>
       </c>
       <c r="O8" t="n">
-        <v>199.91294</v>
+        <v>307.4108</v>
       </c>
       <c r="P8" t="n">
-        <v>3.7353</v>
+        <v>2.3849</v>
       </c>
       <c r="Q8" t="n">
-        <v>498.48601</v>
+        <v>502.8388</v>
       </c>
       <c r="R8" t="n">
-        <v>35.37897</v>
+        <v>45.7734</v>
       </c>
       <c r="S8" t="n">
-        <v>149.56239</v>
+        <v>173.5597</v>
       </c>
       <c r="T8" t="n">
-        <v>6393.19809</v>
+        <v>7559.3349</v>
       </c>
       <c r="U8" t="n">
-        <v>3001.30581</v>
+        <v>4043.5337</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>108.67662</v>
+        <v>106.3873</v>
       </c>
       <c r="X8" t="n">
-        <v>441.03251</v>
+        <v>487.2484</v>
       </c>
       <c r="Y8" t="n">
-        <v>897.19488</v>
+        <v>1134.0134</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.22302</v>
+        <v>24.0529</v>
       </c>
       <c r="AA8" t="n">
-        <v>316.95661</v>
+        <v>510.7729</v>
       </c>
       <c r="AB8" t="n">
-        <v>1859.53754</v>
+        <v>2085.619</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.99504</v>
+        <v>14.6521</v>
       </c>
       <c r="AD8" t="n">
-        <v>1638.46596</v>
+        <v>1918.8057</v>
       </c>
       <c r="AE8" t="n">
-        <v>85.89196</v>
+        <v>58.6086</v>
       </c>
       <c r="AF8" t="n">
-        <v>119.18458</v>
+        <v>93.5527</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.93689</v>
+        <v>15.5276</v>
       </c>
       <c r="AH8" t="n">
-        <v>20.52182</v>
+        <v>15.4615</v>
       </c>
       <c r="AI8" t="n">
-        <v>279.14543</v>
+        <v>302.2031</v>
       </c>
       <c r="AJ8" t="n">
-        <v>89.41372</v>
+        <v>63.8405</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.87705</v>
+        <v>1.5345</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>887.9699000000001</v>
+        <v>1166.915</v>
       </c>
       <c r="C9" t="n">
-        <v>77.20227</v>
+        <v>97.914</v>
       </c>
       <c r="D9" t="n">
-        <v>219.09128</v>
+        <v>243.312</v>
       </c>
       <c r="E9" t="n">
-        <v>8070.8</v>
+        <v>9279.1036</v>
       </c>
       <c r="F9" t="n">
-        <v>28.15444</v>
+        <v>12.026</v>
       </c>
       <c r="G9" t="n">
-        <v>158.7</v>
+        <v>243.733</v>
       </c>
       <c r="H9" t="n">
-        <v>1.15407</v>
+        <v>3.495</v>
       </c>
       <c r="I9" t="n">
-        <v>3203.1</v>
+        <v>4035.009</v>
       </c>
       <c r="J9" t="n">
-        <v>1.55828</v>
+        <v>8.387</v>
       </c>
       <c r="K9" t="n">
-        <v>0.49678</v>
+        <v>0.123</v>
       </c>
       <c r="L9" t="n">
-        <v>6538.2</v>
+        <v>7696.346</v>
       </c>
       <c r="M9" t="n">
-        <v>3.34041</v>
+        <v>0.384</v>
       </c>
       <c r="N9" t="n">
-        <v>683.50243</v>
+        <v>536.5</v>
       </c>
       <c r="O9" t="n">
-        <v>229.52299</v>
+        <v>384.245</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4839</v>
+        <v>2.247</v>
       </c>
       <c r="Q9" t="n">
-        <v>525.81474</v>
+        <v>510.59</v>
       </c>
       <c r="R9" t="n">
-        <v>41.26372</v>
+        <v>5.545</v>
       </c>
       <c r="S9" t="n">
-        <v>187.1034</v>
+        <v>160.325</v>
       </c>
       <c r="T9" t="n">
-        <v>7024.1724</v>
+        <v>7868.455</v>
       </c>
       <c r="U9" t="n">
-        <v>3432.6</v>
+        <v>4419.253</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>114.32321</v>
+        <v>59.279</v>
       </c>
       <c r="X9" t="n">
-        <v>463.1339</v>
+        <v>493.656</v>
       </c>
       <c r="Y9" t="n">
-        <v>1006.84452</v>
+        <v>1072.169</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.58226</v>
+        <v>22.357</v>
       </c>
       <c r="AA9" t="n">
-        <v>399.24687</v>
+        <v>488.49</v>
       </c>
       <c r="AB9" t="n">
-        <v>1999.89029</v>
+        <v>2373.989</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.35408</v>
+        <v>13.238</v>
       </c>
       <c r="AD9" t="n">
-        <v>1785.51192</v>
+        <v>2218.694</v>
       </c>
       <c r="AE9" t="n">
-        <v>72.64243999999999</v>
+        <v>56.325</v>
       </c>
       <c r="AF9" t="n">
-        <v>126.38185</v>
+        <v>85.732</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.79939</v>
+        <v>4.068</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.18793</v>
+        <v>15.416</v>
       </c>
       <c r="AI9" t="n">
-        <v>280.36635</v>
+        <v>282.811</v>
       </c>
       <c r="AJ9" t="n">
-        <v>86.61906999999999</v>
+        <v>52.283</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.4783</v>
+        <v>1.314</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>931.6706</v>
+        <v>1213</v>
       </c>
       <c r="C10" t="n">
-        <v>71.485</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>215.9445</v>
+        <v>202.3</v>
       </c>
       <c r="E10" t="n">
-        <v>8451.890299999999</v>
+        <v>10099</v>
       </c>
       <c r="F10" t="n">
-        <v>26.2808</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>196.8988</v>
+        <v>228.1</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7369</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3522.7138</v>
+        <v>4112.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6133</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.5635</v>
-      </c>
+        <v>6.7</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6924.1384</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.6435999999999999</v>
-      </c>
+        <v>8353.799999999999</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>662.818</v>
+        <v>472.1</v>
       </c>
       <c r="O10" t="n">
-        <v>243.5147</v>
+        <v>387</v>
       </c>
       <c r="P10" t="n">
-        <v>3.7378</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>496.5721</v>
+        <v>618.3</v>
       </c>
       <c r="R10" t="n">
-        <v>42.1786</v>
+        <v>7.9</v>
       </c>
       <c r="S10" t="n">
-        <v>167.701</v>
+        <v>332</v>
       </c>
       <c r="T10" t="n">
-        <v>7323.3214</v>
+        <v>8598.200000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>3766.2287</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>4499.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>59.6</v>
+      </c>
       <c r="W10" t="n">
-        <v>108.5801</v>
+        <v>56.3</v>
       </c>
       <c r="X10" t="n">
-        <v>455.2824</v>
+        <v>569.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>1031.1799</v>
+        <v>1126.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.3407</v>
+        <v>12.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>445.3642</v>
+        <v>482</v>
       </c>
       <c r="AB10" t="n">
-        <v>2089.9825</v>
+        <v>2964.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.9092</v>
+        <v>13.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1893.5912</v>
+        <v>2836.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>70.9639</v>
+        <v>57.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>110.5187</v>
+        <v>57.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.2574</v>
+        <v>4.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.787</v>
+        <v>11.7</v>
       </c>
       <c r="AI10" t="n">
-        <v>282.4846</v>
+        <v>351.6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>77.3</v>
+        <v>48.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>1.3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1030.0404</v>
+        <v>1720.8383</v>
       </c>
       <c r="C11" t="n">
-        <v>99.8442</v>
+        <v>53.6989</v>
       </c>
       <c r="D11" t="n">
-        <v>186.3489</v>
+        <v>221.348</v>
       </c>
       <c r="E11" t="n">
-        <v>8794.193499999999</v>
+        <v>11265.6996</v>
       </c>
       <c r="F11" t="n">
-        <v>21.2178</v>
+        <v>0.271</v>
       </c>
       <c r="G11" t="n">
-        <v>204.8189</v>
+        <v>336.8156</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.6872</v>
+        <v>8.5404</v>
       </c>
       <c r="I11" t="n">
-        <v>3736.1229</v>
+        <v>4137.9958</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5525</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0544</v>
-      </c>
+        <v>3.0763</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7157.3411</v>
-      </c>
-      <c r="M11" t="n">
-        <v>11.5538</v>
-      </c>
+        <v>9237.118200000001</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>609.9395</v>
+        <v>462.1236</v>
       </c>
       <c r="O11" t="n">
-        <v>307.4108</v>
+        <v>459.4723</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3849</v>
+        <v>2.5945</v>
       </c>
       <c r="Q11" t="n">
-        <v>502.8388</v>
+        <v>822.1024</v>
       </c>
       <c r="R11" t="n">
-        <v>45.7734</v>
+        <v>15.1299</v>
       </c>
       <c r="S11" t="n">
-        <v>173.5597</v>
+        <v>523.3855</v>
       </c>
       <c r="T11" t="n">
-        <v>7559.3349</v>
+        <v>9187.3408</v>
       </c>
       <c r="U11" t="n">
-        <v>4043.5337</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>4597.4683</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17.5356</v>
+      </c>
       <c r="W11" t="n">
-        <v>106.3873</v>
+        <v>45.4925</v>
       </c>
       <c r="X11" t="n">
-        <v>487.2484</v>
+        <v>636.1785</v>
       </c>
       <c r="Y11" t="n">
-        <v>1134.0134</v>
+        <v>1206.4796</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.0529</v>
+        <v>3.8041</v>
       </c>
       <c r="AA11" t="n">
-        <v>510.7729</v>
+        <v>517.9285</v>
       </c>
       <c r="AB11" t="n">
-        <v>2085.619</v>
+        <v>3698.6714</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.6521</v>
+        <v>12.1501</v>
       </c>
       <c r="AD11" t="n">
-        <v>1918.8057</v>
+        <v>3542.6071</v>
       </c>
       <c r="AE11" t="n">
-        <v>58.6086</v>
+        <v>51.7836</v>
       </c>
       <c r="AF11" t="n">
-        <v>93.5527</v>
+        <v>92.1314</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5276</v>
+        <v>4.1585</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.4615</v>
+        <v>10.8409</v>
       </c>
       <c r="AI11" t="n">
-        <v>302.2031</v>
+        <v>415.9482</v>
       </c>
       <c r="AJ11" t="n">
-        <v>63.8405</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1.5345</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>47.6369</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>3.1686</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1166.915</v>
+        <v>1995.3897</v>
       </c>
       <c r="C12" t="n">
-        <v>97.914</v>
+        <v>37.9405</v>
       </c>
       <c r="D12" t="n">
-        <v>243.312</v>
+        <v>355.0871</v>
       </c>
       <c r="E12" t="n">
-        <v>9279.1036</v>
+        <v>12349.9806</v>
       </c>
       <c r="F12" t="n">
-        <v>12.026</v>
+        <v>1.6996</v>
       </c>
       <c r="G12" t="n">
-        <v>243.733</v>
+        <v>356.0813</v>
       </c>
       <c r="H12" t="n">
-        <v>3.495</v>
+        <v>5.9527</v>
       </c>
       <c r="I12" t="n">
-        <v>4035.009</v>
+        <v>4159.3044</v>
       </c>
       <c r="J12" t="n">
-        <v>8.387</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.123</v>
-      </c>
+        <v>5.4055</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7696.346</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.384</v>
-      </c>
+        <v>10131.3044</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>536.5</v>
+        <v>495.1066</v>
       </c>
       <c r="O12" t="n">
-        <v>384.245</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.247</v>
-      </c>
+        <v>492.7175</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>510.59</v>
+        <v>916.0714</v>
       </c>
       <c r="R12" t="n">
-        <v>5.545</v>
+        <v>7.8761</v>
       </c>
       <c r="S12" t="n">
-        <v>160.325</v>
+        <v>509.2152</v>
       </c>
       <c r="T12" t="n">
-        <v>7868.455</v>
+        <v>9969.8797</v>
       </c>
       <c r="U12" t="n">
-        <v>4419.253</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>4652.0225</v>
+      </c>
+      <c r="V12" t="n">
+        <v>21.2365</v>
+      </c>
       <c r="W12" t="n">
-        <v>59.279</v>
+        <v>50.6255</v>
       </c>
       <c r="X12" t="n">
-        <v>493.656</v>
+        <v>642.5616</v>
       </c>
       <c r="Y12" t="n">
-        <v>1072.169</v>
+        <v>1302.6049</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.357</v>
+        <v>4.4842</v>
       </c>
       <c r="AA12" t="n">
-        <v>488.49</v>
+        <v>599.5279</v>
       </c>
       <c r="AB12" t="n">
-        <v>2373.989</v>
+        <v>4593.0011</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.238</v>
+        <v>15.993</v>
       </c>
       <c r="AD12" t="n">
-        <v>2218.694</v>
+        <v>4434.1737</v>
       </c>
       <c r="AE12" t="n">
-        <v>56.325</v>
+        <v>76.96510000000001</v>
       </c>
       <c r="AF12" t="n">
-        <v>85.732</v>
+        <v>65.8698</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.068</v>
+        <v>13.4747</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.416</v>
+        <v>45.5401</v>
       </c>
       <c r="AI12" t="n">
-        <v>282.811</v>
+        <v>290.4563</v>
       </c>
       <c r="AJ12" t="n">
-        <v>52.283</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1.314</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>40.0044</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>7.3939</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1213</v>
+        <v>2181.2347</v>
       </c>
       <c r="C13" t="n">
-        <v>75.59999999999999</v>
+        <v>42.6333</v>
       </c>
       <c r="D13" t="n">
-        <v>202.3</v>
+        <v>356.91</v>
       </c>
       <c r="E13" t="n">
-        <v>10099</v>
+        <v>12814.8523</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>0.8172</v>
       </c>
       <c r="G13" t="n">
-        <v>228.1</v>
+        <v>326.4719</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5</v>
+        <v>24.2525</v>
       </c>
       <c r="I13" t="n">
-        <v>4112.2</v>
+        <v>4299.3484</v>
       </c>
       <c r="J13" t="n">
-        <v>6.7</v>
+        <v>6.9173</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8353.799999999999</v>
+        <v>10610.2354</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>472.1</v>
+        <v>486.9481</v>
       </c>
       <c r="O13" t="n">
-        <v>387</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.7</v>
-      </c>
+        <v>602.4669</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>618.3</v>
+        <v>807.8502</v>
       </c>
       <c r="R13" t="n">
-        <v>7.9</v>
+        <v>6.9004</v>
       </c>
       <c r="S13" t="n">
-        <v>332</v>
+        <v>377.154</v>
       </c>
       <c r="T13" t="n">
-        <v>8598.200000000001</v>
+        <v>10268.6401</v>
       </c>
       <c r="U13" t="n">
-        <v>4499.2</v>
+        <v>4901.8152</v>
       </c>
       <c r="V13" t="n">
-        <v>59.6</v>
+        <v>30.1696</v>
       </c>
       <c r="W13" t="n">
-        <v>56.3</v>
+        <v>63.8081</v>
       </c>
       <c r="X13" t="n">
-        <v>569.2</v>
+        <v>659.4278</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.9</v>
+        <v>1396.7667</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.7</v>
+        <v>11.1021</v>
       </c>
       <c r="AA13" t="n">
-        <v>482</v>
+        <v>655.5114</v>
       </c>
       <c r="AB13" t="n">
-        <v>2964.5</v>
+        <v>4932.0926</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.4</v>
+        <v>12.6476</v>
       </c>
       <c r="AD13" t="n">
-        <v>2836.2</v>
+        <v>4763.7029</v>
       </c>
       <c r="AE13" t="n">
-        <v>57.4</v>
+        <v>92.3524</v>
       </c>
       <c r="AF13" t="n">
-        <v>57.5</v>
+        <v>63.3896</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.6</v>
+        <v>5.4958</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.7</v>
+        <v>11.5895</v>
       </c>
       <c r="AI13" t="n">
-        <v>351.6</v>
+        <v>231.6437</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1.3</v>
-      </c>
+        <v>39.8334</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1720.8383</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53.6989</v>
-      </c>
-      <c r="D14" t="n">
-        <v>221.348</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11265.6996</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="G14" t="n">
-        <v>336.8156</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.5404</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4137.9958</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.0763</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>9237.118200000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>462.1236</v>
-      </c>
-      <c r="O14" t="n">
-        <v>459.4723</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5945</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>822.1024</v>
-      </c>
-      <c r="R14" t="n">
-        <v>15.1299</v>
-      </c>
-      <c r="S14" t="n">
-        <v>523.3855</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9187.3408</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4597.4683</v>
-      </c>
-      <c r="V14" t="n">
-        <v>17.5356</v>
-      </c>
-      <c r="W14" t="n">
-        <v>45.4925</v>
-      </c>
-      <c r="X14" t="n">
-        <v>636.1785</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1206.4796</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.8041</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>517.9285</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>3698.6714</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12.1501</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3542.6071</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>51.7836</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>92.1314</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>4.1585</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>10.8409</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>415.9482</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>47.6369</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>3.1686</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1995.3897</v>
-      </c>
-      <c r="C15" t="n">
-        <v>37.9405</v>
-      </c>
-      <c r="D15" t="n">
-        <v>355.0871</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12349.9806</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.6996</v>
-      </c>
-      <c r="G15" t="n">
-        <v>356.0813</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.9527</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4159.3044</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.4055</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>10131.3044</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>495.1066</v>
-      </c>
-      <c r="O15" t="n">
-        <v>492.7175</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>916.0714</v>
-      </c>
-      <c r="R15" t="n">
-        <v>7.8761</v>
-      </c>
-      <c r="S15" t="n">
-        <v>509.2152</v>
-      </c>
-      <c r="T15" t="n">
-        <v>9969.8797</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4652.0225</v>
-      </c>
-      <c r="V15" t="n">
-        <v>21.2365</v>
-      </c>
-      <c r="W15" t="n">
-        <v>50.6255</v>
-      </c>
-      <c r="X15" t="n">
-        <v>642.5616</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1302.6049</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4.4842</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>599.5279</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>4593.0011</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>15.993</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>4434.1737</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>76.96510000000001</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>65.8698</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13.4747</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>45.5401</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>290.4563</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>40.0044</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>7.3939</v>
+        <v>8.336</v>
       </c>
     </row>
   </sheetData>
